--- a/wzrv/expdata/2017.xlsx
+++ b/wzrv/expdata/2017.xlsx
@@ -5,18 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EA5C14-9A69-D045-BA05-ABB94E224018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB5296-B90C-EC48-BA2B-CC515AAECB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -48,9 +57,6 @@
     <t>stat_u</t>
   </si>
   <si>
-    <t>syst_u</t>
-  </si>
-  <si>
     <t>obs</t>
   </si>
   <si>
@@ -63,22 +69,25 @@
     <t>col</t>
   </si>
   <si>
-    <t>W</t>
+    <t>eta</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>W+</t>
+  </si>
+  <si>
+    <t>syst1_c</t>
+  </si>
+  <si>
+    <t>LHCb(mu)(2016)</t>
+  </si>
+  <si>
+    <t>syst2_c</t>
   </si>
   <si>
     <t>A_eta_mu</t>
-  </si>
-  <si>
-    <t>eta</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>syst_c</t>
-  </si>
-  <si>
-    <t>LHCb(mu)(2016)</t>
   </si>
 </sst>
 </file>
@@ -399,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,22 +445,22 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -468,31 +477,31 @@
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1">
         <v>0.2767</v>
       </c>
       <c r="G2" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="H2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
       <c r="I2" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -509,7 +518,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>0.2702</v>
@@ -518,22 +527,22 @@
         <v>3.3E-3</v>
       </c>
       <c r="H3" s="1">
-        <v>4.7000000000000002E-3</v>
+        <v>4.6999999999999993E-3</v>
       </c>
       <c r="I3" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -550,7 +559,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1">
         <v>0.24390000000000001</v>
@@ -562,19 +571,19 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="I4" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -591,31 +600,31 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1">
         <v>0.1996</v>
       </c>
       <c r="G5" s="1">
-        <v>3.5000000000000001E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>3.3999999999999998E-3</v>
+        <v>3.4000000000000002E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -632,7 +641,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1">
         <v>0.12740000000000001</v>
@@ -644,19 +653,19 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -673,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>2.75E-2</v>
@@ -685,19 +694,19 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -714,31 +723,31 @@
         <v>20</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>-0.15989999999999999</v>
+        <v>-0.15990000000000001</v>
       </c>
       <c r="G8" s="1">
-        <v>3.8999999999999998E-3</v>
+        <v>3.9000000000000003E-3</v>
       </c>
       <c r="H8" s="1">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>6.9999999999999999E-4</v>
+        <v>7.000000000000001E-4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -755,32 +764,161 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1">
-        <v>-0.44629999999999997</v>
+        <v>-0.44630000000000003</v>
       </c>
       <c r="G9" s="1">
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="H9" s="1">
-        <v>1.6400000000000001E-2</v>
+        <v>1.6399999999999998E-2</v>
       </c>
       <c r="I9" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="F19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/wzrv/expdata/2017.xlsx
+++ b/wzrv/expdata/2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FB5296-B90C-EC48-BA2B-CC515AAECB45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA40C974-70E3-3B49-B263-2F8DAB38C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>W+</t>
   </si>
   <si>
-    <t>syst1_c</t>
-  </si>
-  <si>
     <t>LHCb(mu)(2016)</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>A_eta_mu</t>
+  </si>
+  <si>
+    <t>syst1_u</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -445,10 +445,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -492,7 +492,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>11</v>
@@ -501,7 +501,7 @@
         <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -533,7 +533,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -574,7 +574,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>11</v>
@@ -583,7 +583,7 @@
         <v>12</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>11</v>
@@ -624,7 +624,7 @@
         <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -656,7 +656,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>12</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>11</v>
@@ -706,7 +706,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -738,7 +738,7 @@
         <v>7.000000000000001E-4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>11</v>
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -779,7 +779,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>11</v>
@@ -788,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">

--- a/wzrv/expdata/2017.xlsx
+++ b/wzrv/expdata/2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA40C974-70E3-3B49-B263-2F8DAB38C43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A3989-755B-6D49-BF65-7E5E082C07F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
   <si>
     <t>cms</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>syst1_u</t>
+  </si>
+  <si>
+    <t>pt_max</t>
   </si>
 </sst>
 </file>
@@ -408,21 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="10.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="1"/>
-    <col min="13" max="13" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1014" max="1025" width="10.5" customWidth="1"/>
+    <col min="1" max="12" width="10.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1"/>
+    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
+    <col min="1015" max="1026" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,34 +439,37 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>8000</v>
       </c>
@@ -476,35 +482,38 @@
       <c r="D2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1">
+        <v>50</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>0.2767</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>8000</v>
       </c>
@@ -517,35 +526,38 @@
       <c r="D3" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1">
+        <v>50</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>0.2702</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>3.3E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>4.6999999999999993E-3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>8000</v>
       </c>
@@ -558,35 +570,38 @@
       <c r="D4" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>0.24390000000000001</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
@@ -599,35 +614,38 @@
       <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.1996</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>3.4999999999999996E-3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>3.4000000000000002E-3</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>8000</v>
       </c>
@@ -640,35 +658,38 @@
       <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.12740000000000001</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>3.8E-3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8000</v>
       </c>
@@ -681,35 +702,38 @@
       <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1">
+        <v>50</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>2.75E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>4.3E-3</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>8000</v>
       </c>
@@ -722,35 +746,38 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1">
+        <v>50</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G8" s="1">
         <v>-0.15990000000000001</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>9.5999999999999992E-3</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8000</v>
       </c>
@@ -763,35 +790,38 @@
       <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>-0.44630000000000003</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>8.8999999999999999E-3</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -805,8 +835,9 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -820,8 +851,9 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -835,8 +867,9 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -850,8 +883,9 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -865,8 +899,9 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -880,8 +915,9 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -895,8 +931,9 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -910,15 +947,16 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F18"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F19"/>
+      <c r="J18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/wzrv/expdata/2017.xlsx
+++ b/wzrv/expdata/2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5A3989-755B-6D49-BF65-7E5E082C07F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC02CBA-72E8-7C4F-B9AF-3F732C55FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -483,7 +483,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -527,7 +527,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -571,7 +571,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -615,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -659,7 +659,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -703,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -791,7 +791,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>

--- a/wzrv/expdata/2017.xlsx
+++ b/wzrv/expdata/2017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wzrv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC02CBA-72E8-7C4F-B9AF-3F732C55FC56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8986F71-E6C2-774F-A653-EF6CEF8043F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>cms</t>
   </si>
@@ -88,22 +88,26 @@
   </si>
   <si>
     <t>syst1_u</t>
-  </si>
-  <si>
-    <t>pt_max</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,9 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -411,417 +418,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="12" width="10.83203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1"/>
-    <col min="14" max="14" width="17.1640625" style="1" customWidth="1"/>
-    <col min="1015" max="1026" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="1"/>
+    <col min="3" max="13" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1014" max="1025" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
         <v>8000</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="E2" s="1">
         <v>2.25</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1">
-        <v>70</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0.2767</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>3.9000000000000003E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="C3" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.2702</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4.6999999999999993E-3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
         <v>8000</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.25</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>2.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="F4" s="1">
         <v>20</v>
       </c>
-      <c r="E3" s="1">
-        <v>70</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="1">
-        <v>0.2702</v>
-      </c>
-      <c r="H3" s="1">
-        <v>3.3E-3</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4.6999999999999993E-3</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="H4" s="1">
+        <v>0.24390000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="K4" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="C5" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.1996</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.4000000000000002E-3</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
         <v>8000</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="F6" s="1">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
-        <v>70</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.24390000000000001</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="H6" s="1">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J6" s="1">
         <v>3.7000000000000002E-3</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K6" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="1" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="C7" s="1">
+        <v>8000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.75E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>4.3E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7.000000000000001E-4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
         <v>8000</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.75</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="D8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="1">
-        <v>70</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1">
-        <v>0.1996</v>
-      </c>
-      <c r="H5" s="1">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.4000000000000002E-3</v>
-      </c>
-      <c r="J5" s="1">
+      <c r="H8" s="1">
+        <v>-0.15990000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.9000000000000003E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="K8" s="1">
         <v>7.000000000000001E-4</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="C9" s="1">
         <v>8000</v>
       </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="1">
-        <v>70</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.12740000000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3.8E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.7000000000000002E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="H9" s="1">
+        <v>-0.44630000000000003</v>
+      </c>
+      <c r="I9" s="1">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.6399999999999998E-2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.25</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D7" s="1">
-        <v>20</v>
-      </c>
-      <c r="E7" s="1">
-        <v>70</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2.75E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>4.3E-3</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1">
-        <v>20</v>
-      </c>
-      <c r="E8" s="1">
-        <v>70</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1">
-        <v>-0.15990000000000001</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3.9000000000000003E-3</v>
-      </c>
-      <c r="I8" s="1">
-        <v>9.5999999999999992E-3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>8000</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1">
-        <v>70</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="1">
-        <v>-0.44630000000000003</v>
-      </c>
-      <c r="H9" s="1">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.6399999999999998E-2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -835,9 +815,8 @@
       <c r="K10"/>
       <c r="L10"/>
       <c r="M10"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -851,9 +830,8 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -867,9 +845,8 @@
       <c r="K12"/>
       <c r="L12"/>
       <c r="M12"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -883,9 +860,8 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -899,9 +875,8 @@
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -915,9 +890,8 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -931,9 +905,8 @@
       <c r="K16"/>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -947,16 +920,15 @@
       <c r="K17"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G18"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G19"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
